--- a/other/outputs/diet/mass_conversion/prey_types_manual_edit.xlsx
+++ b/other/outputs/diet/mass_conversion/prey_types_manual_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/UAF Semesters/Thesis/Current Draft/Chapter 1/submissions/new submission/v3_draft_TAFS_Meyer/v3_submission_format/kenai_juv_salmon_growth_analyses/other/outputs/diet/mass_conversion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488E82D8-3E16-6341-A330-A69E1B27D3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B48A95-FAD0-6E40-B012-A23AEEE832F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="460" windowWidth="14600" windowHeight="14120" xr2:uid="{E4E6E468-3227-6F4C-942C-29CBE706571C}"/>
+    <workbookView xWindow="2080" yWindow="460" windowWidth="15900" windowHeight="13880" xr2:uid="{E4E6E468-3227-6F4C-942C-29CBE706571C}"/>
   </bookViews>
   <sheets>
     <sheet name="prey_types" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">prey_types!$A$1:$A$129</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="160">
   <si>
     <t>Column1</t>
   </si>
@@ -487,16 +487,46 @@
     <t>Ephemeroptera, Plecoptera, Trichoptera, Diptera, and Neuroptera</t>
   </si>
   <si>
-    <t>Gastropoda and Annelida (Cummins and Wuycheck 1971)</t>
-  </si>
-  <si>
     <t>Ephemeroptera, Plecoptera, Trichoptera, and Diptera</t>
   </si>
   <si>
     <t>Coleoptera and Trichoptera</t>
   </si>
   <si>
-    <t>Diptera (Cummins and Wuycheck 1971)</t>
+    <t>Diptera (Cummins and Wuycheck 1971). DM ratio = Average of other aquatic values.</t>
+  </si>
+  <si>
+    <t>Gastropoda and Annelida (Cummins and Wuycheck 1971). DM ratio = Average of other aquatic values.</t>
+  </si>
+  <si>
+    <t>Salmon eggs</t>
+  </si>
+  <si>
+    <t>leech</t>
+  </si>
+  <si>
+    <t>column3</t>
+  </si>
+  <si>
+    <t>Edwards et al. 2009</t>
+  </si>
+  <si>
+    <t>Average value ratio of the three leech species measured</t>
+  </si>
+  <si>
+    <t>Hirudinea</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Ashton et al. 1993 (DM); Armstrong 2010 (Energy density)</t>
+  </si>
+  <si>
+    <t>Brey et al. 2010 (DM); Beauchamp 1989 (Energy Density)</t>
+  </si>
+  <si>
+    <t>does not exist; ignore</t>
   </si>
 </sst>
 </file>
@@ -545,7 +575,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -567,21 +600,26 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EB7F2477-2BF1-FD49-A0C6-E1813BB79D86}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3" unboundColumnsRight="1">
-    <queryTableFields count="2">
+  <queryTableRefresh nextId="7" unboundColumnsRight="2">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" dataBound="0" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{359AC7E8-0A50-AC44-B70E-57BBAD343DD9}" name="prey_types" displayName="prey_types" ref="A1:B129" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B129" xr:uid="{359AC7E8-0A50-AC44-B70E-57BBAD343DD9}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3886E24F-D67E-114A-BC34-70D8FE923369}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{354DED9E-5916-1A4A-B1B8-4895A9563AA3}" uniqueName="2" name="column2" queryTableFieldId="2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{359AC7E8-0A50-AC44-B70E-57BBAD343DD9}" name="prey_types" displayName="prey_types" ref="A1:C129" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C129" xr:uid="{359AC7E8-0A50-AC44-B70E-57BBAD343DD9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C129">
+    <sortCondition ref="B3:B129"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3886E24F-D67E-114A-BC34-70D8FE923369}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{354DED9E-5916-1A4A-B1B8-4895A9563AA3}" uniqueName="2" name="column2" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5D2A14C3-04C4-C84A-8772-069C444B0824}" uniqueName="3" name="column3" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -884,817 +922,1186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EED284-C409-CA4A-A8F1-7D34A06A7884}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="B129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1702,11 +2109,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B198E4A-EC76-AD4C-99D2-D27C3BA4D180}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7480954E-3386-A44E-84D5-B0C9DC07FABD}">
           <x14:formula1>
-            <xm:f>data_validation!$A$2:$A$9</xm:f>
+            <xm:f>data_validation!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
+          <xm:sqref>B4:B98 B99:B129 B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1716,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EADCE1-B3CB-E440-92EF-7DAFA1D40032}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,6 +2157,10 @@
       <c r="A2" t="s">
         <v>132</v>
       </c>
+      <c r="B2">
+        <f>AVERAGE(B3:B4)</f>
+        <v>0.16999999999999998</v>
+      </c>
       <c r="C2">
         <v>2746</v>
       </c>
@@ -1757,7 +2168,7 @@
         <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1774,7 +2185,7 @@
         <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1791,13 +2202,17 @@
         <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>135</v>
       </c>
+      <c r="B5">
+        <f>AVERAGE(B3:B4)</f>
+        <v>0.16999999999999998</v>
+      </c>
       <c r="C5">
         <v>2789</v>
       </c>
@@ -1805,7 +2220,7 @@
         <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1867,13 +2282,54 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.249</v>
+      </c>
+      <c r="C10">
+        <v>5235</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <v>0.4</v>
+      </c>
+      <c r="C11">
+        <v>9000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(0.147,0.289,0.446)</f>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C12">
+        <v>3365</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>143</v>
       </c>
     </row>

--- a/other/outputs/diet/mass_conversion/prey_types_manual_edit.xlsx
+++ b/other/outputs/diet/mass_conversion/prey_types_manual_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/UAF Semesters/Thesis/Current Draft/Chapter 1/submissions/new submission/v3_draft_TAFS_Meyer/v3_submission_format/kenai_juv_salmon_growth_analyses/other/outputs/diet/mass_conversion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B48A95-FAD0-6E40-B012-A23AEEE832F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649CC78-5437-FF46-AD90-09560175DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="460" windowWidth="15900" windowHeight="13880" xr2:uid="{E4E6E468-3227-6F4C-942C-29CBE706571C}"/>
+    <workbookView xWindow="180" yWindow="520" windowWidth="20000" windowHeight="13620" activeTab="1" xr2:uid="{E4E6E468-3227-6F4C-942C-29CBE706571C}"/>
   </bookViews>
   <sheets>
     <sheet name="prey_types" sheetId="2" r:id="rId1"/>
@@ -38,6 +38,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={998315A7-9E1E-D84F-A12A-876FF7AFB3B5}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{998315A7-9E1E-D84F-A12A-876FF7AFB3B5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Prey category structure of less granular nature, better corresponds to published prey energy density values</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{FC836216-5C96-1C48-BCDA-242598FBDB72}" keepAlive="1" name="Query - prey_types" description="Connection to the 'prey_types' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
@@ -47,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="172">
   <si>
     <t>Column1</t>
   </si>
@@ -487,18 +505,6 @@
     <t>Ephemeroptera, Plecoptera, Trichoptera, Diptera, and Neuroptera</t>
   </si>
   <si>
-    <t>Ephemeroptera, Plecoptera, Trichoptera, and Diptera</t>
-  </si>
-  <si>
-    <t>Coleoptera and Trichoptera</t>
-  </si>
-  <si>
-    <t>Diptera (Cummins and Wuycheck 1971). DM ratio = Average of other aquatic values.</t>
-  </si>
-  <si>
-    <t>Gastropoda and Annelida (Cummins and Wuycheck 1971). DM ratio = Average of other aquatic values.</t>
-  </si>
-  <si>
     <t>Salmon eggs</t>
   </si>
   <si>
@@ -508,15 +514,6 @@
     <t>column3</t>
   </si>
   <si>
-    <t>Edwards et al. 2009</t>
-  </si>
-  <si>
-    <t>Average value ratio of the three leech species measured</t>
-  </si>
-  <si>
-    <t>Hirudinea</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -527,13 +524,70 @@
   </si>
   <si>
     <t>does not exist; ignore</t>
+  </si>
+  <si>
+    <t>PreyCategory_ED</t>
+  </si>
+  <si>
+    <t>InvertAquatic_AqOrigin</t>
+  </si>
+  <si>
+    <t>SalmonEggs</t>
+  </si>
+  <si>
+    <t>InvertTerrestrial</t>
+  </si>
+  <si>
+    <t>FishEggs</t>
+  </si>
+  <si>
+    <t>Ashton et al. 1993 (DM); Beauchamp 1989 (Energy density)</t>
+  </si>
+  <si>
+    <t>InvertTerrestrial_AqOrigin</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>Diet1</t>
+  </si>
+  <si>
+    <t>Diet2</t>
+  </si>
+  <si>
+    <t>Diet3</t>
+  </si>
+  <si>
+    <t>Diet4</t>
+  </si>
+  <si>
+    <t>Diet5</t>
+  </si>
+  <si>
+    <t>Energy density values are averages of terrestrials in McCarthy et al. 2009 (Orthoptera, Hymenoptera, Coleoptera)</t>
+  </si>
+  <si>
+    <t>Energy density values are averages of terrestrial invertebrates in McCarthy et al. 2009 (Orthoptera, Hymenoptera, Coleoptera)</t>
+  </si>
+  <si>
+    <t>Diptera (Cummins and Wuycheck 1971). DM ratio = Average of other aquatic values. Energy density values are averages of aquatic invertebrates in McCarthy et al. 2009 (Orthoptera, Hymenoptera, Coleoptera).</t>
+  </si>
+  <si>
+    <t>Gastropoda and Annelida (Cummins and Wuycheck 1971). DM ratio = Average of other aquatic values. Energy density values are averages of aquatic invertebrates in McCarthy et al. 2009 (Orthoptera, Hymenoptera, Coleoptera)</t>
+  </si>
+  <si>
+    <t>Ephemeroptera, Plecoptera, Trichoptera, and Diptera. Energy density values are averages of aquatic invertebrates in McCarthy et al. 2009 (Orthoptera, Hymenoptera, Coleoptera).</t>
+  </si>
+  <si>
+    <t>Coleoptera and Trichoptera. Energy density values are averages of aquatic invertebrates in McCarthy et al. 2009 (Orthoptera, Hymenoptera, Coleoptera)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,13 +601,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -568,9 +638,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,6 +668,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Benjamin Meyer" id="{F0DE9F3C-E6D0-5942-BF43-5E0DD58B888C}" userId="S::bemeyer@alaska.edu::42151b5f-f167-4d31-8f33-c4ad3da6919d" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,13 +998,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2022-05-08T00:06:52.39" personId="{F0DE9F3C-E6D0-5942-BF43-5E0DD58B888C}" id="{998315A7-9E1E-D84F-A12A-876FF7AFB3B5}">
+    <text>Prey category structure of less granular nature, better corresponds to published prey energy density values</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EED284-C409-CA4A-A8F1-7D34A06A7884}">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +1029,7 @@
         <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1762,11 +1848,11 @@
       <c r="A92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>155</v>
+      <c r="B92" t="s">
+        <v>135</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1828,7 +1914,7 @@
         <v>42</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C99" s="1"/>
     </row>
@@ -1837,7 +1923,7 @@
         <v>56</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C100" s="1"/>
     </row>
@@ -1846,7 +1932,7 @@
         <v>71</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C101" s="1"/>
     </row>
@@ -2034,7 +2120,7 @@
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2043,7 +2129,7 @@
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2052,7 +2138,7 @@
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,9 +2163,11 @@
       <c r="A127" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C127" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2088,16 +2176,18 @@
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2111,9 +2201,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7480954E-3386-A44E-84D5-B0C9DC07FABD}">
           <x14:formula1>
-            <xm:f>data_validation!$A$2:$A$28</xm:f>
+            <xm:f>data_validation!$A$2:$A$26</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B98 B99:B129 B2</xm:sqref>
+          <xm:sqref>B2 B4:B129</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2122,220 +2212,313 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EADCE1-B3CB-E440-92EF-7DAFA1D40032}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EADCE1-B3CB-E440-92EF-7DAFA1D40032}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>140</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>132</v>
       </c>
-      <c r="B2">
-        <f>AVERAGE(B3:B4)</f>
+      <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2">
         <v>0.16999999999999998</v>
       </c>
-      <c r="C2">
-        <v>2746</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>3221</v>
+      </c>
+      <c r="F2" t="s">
         <v>142</v>
       </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3">
-        <v>0.21</v>
-      </c>
-      <c r="C3">
-        <v>4272</v>
-      </c>
-      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3">
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="E3">
+        <v>3221</v>
+      </c>
+      <c r="F3" t="s">
         <v>142</v>
       </c>
-      <c r="E3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4">
         <v>0.13</v>
       </c>
-      <c r="C4">
-        <v>3076</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>3221</v>
+      </c>
+      <c r="F4" t="s">
         <v>142</v>
       </c>
-      <c r="E4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5">
-        <f>AVERAGE(B3:B4)</f>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="C5">
-        <v>2789</v>
-      </c>
-      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5">
+        <v>0.21</v>
+      </c>
+      <c r="E5">
+        <v>3221</v>
+      </c>
+      <c r="F5" t="s">
         <v>142</v>
       </c>
-      <c r="E5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6">
         <v>0.18</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>4225</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>142</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C7">
-        <v>6387</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7">
+        <v>0.249</v>
+      </c>
+      <c r="E7">
+        <v>5235</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8">
-        <v>0.24</v>
-      </c>
-      <c r="C8">
-        <v>5134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>5235</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9">
         <v>0.22</v>
       </c>
-      <c r="C9">
-        <v>4228</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>5250</v>
+      </c>
+      <c r="F9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0.249</v>
-      </c>
-      <c r="C10">
-        <v>5235</v>
-      </c>
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10">
+        <v>0.24</v>
+      </c>
+      <c r="E10">
+        <v>5250</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E11">
+        <v>5250</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
+      <c r="E12">
+        <v>9000</v>
+      </c>
+      <c r="F12" t="s">
         <v>150</v>
       </c>
-      <c r="B11">
-        <v>0.4</v>
-      </c>
-      <c r="C11">
-        <v>9000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE(0.147,0.289,0.446)</f>
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="C12">
-        <v>3365</v>
-      </c>
-      <c r="D12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>143</v>
       </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G22">
+    <sortCondition ref="E2:E22"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
